--- a/dags/files_pami/PAMIResolutividad.xlsx
+++ b/dags/files_pami/PAMIResolutividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/RESOLUTIVIDAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{351CCED9-9AFC-457F-A2B6-D733037B798B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2AFB70E-EFDE-4630-9B47-90573A804A00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{50340556-7F8D-49D4-ADDC-CFA4EE57B04F}"/>
   </bookViews>
@@ -457,13 +457,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2">
-        <v>1168</v>
+        <v>956</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,13 +655,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9501D9A6-A0EC-4B1C-BE34-FE41F3F28224}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB2051D1-58F3-4932-9933-842572A725AB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7787A319-6642-4E9F-A097-7692C2CF1E62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D172F92-9635-416E-B085-4811CD453F17}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83E53CDB-9531-46CC-9083-B91099BA456A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90E55D5-41D5-4456-B3A9-8EF7C0C53788}"/>
 </file>
--- a/dags/files_pami/PAMIResolutividad.xlsx
+++ b/dags/files_pami/PAMIResolutividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/RESOLUTIVIDAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2AFB70E-EFDE-4630-9B47-90573A804A00}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EC0E127-DA5B-4697-8B1D-606C3893C4EC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{50340556-7F8D-49D4-ADDC-CFA4EE57B04F}"/>
   </bookViews>
@@ -457,13 +457,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B2">
-        <v>956</v>
+        <v>1298</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,20 +648,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB2051D1-58F3-4932-9933-842572A725AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72A4B3A9-4253-4291-8EED-6D129F423B7D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D172F92-9635-416E-B085-4811CD453F17}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90E55D5-41D5-4456-B3A9-8EF7C0C53788}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382D8657-1B2C-4C59-AD96-96ED7F912623}"/>
 </file>
--- a/dags/files_pami/PAMIResolutividad.xlsx
+++ b/dags/files_pami/PAMIResolutividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/RESOLUTIVIDAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EC0E127-DA5B-4697-8B1D-606C3893C4EC}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1271F383-D982-48A0-B3A4-D32458C0954F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{50340556-7F8D-49D4-ADDC-CFA4EE57B04F}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,13 +457,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2">
         <v>1298</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,8 +475,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33b02bf87a1dd6f4b3a4b5e0f725ed7a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6d66165c6d3d4cf8e0bc57ff34d5fa9" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="64521337f70ab7452aeeac0760611e10">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bab967c49d094239a50a0e5887e9ad5e" ns2:_="" ns3:_="">
     <xsd:import namespace="b848449e-c9d3-4969-a575-ff0d96471e4b"/>
     <xsd:import namespace="ac8deb47-86bc-4260-8fcd-a6158e6e95f4"/>
     <xsd:element name="properties">
@@ -489,6 +489,7 @@
                 <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -537,6 +538,11 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -649,9 +655,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72A4B3A9-4253-4291-8EED-6D129F423B7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3635DEC8-4BCD-486A-ABC7-45503F172BF5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{382D8657-1B2C-4C59-AD96-96ED7F912623}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E2266D0-D27E-4377-B4B6-88A994955DCE}"/>
 </file>
--- a/dags/files_pami/PAMIResolutividad.xlsx
+++ b/dags/files_pami/PAMIResolutividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/RESOLUTIVIDAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1271F383-D982-48A0-B3A4-D32458C0954F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6DB3D01-B1B1-48AA-976A-FE3A7387A4DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{50340556-7F8D-49D4-ADDC-CFA4EE57B04F}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,13 +457,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2">
-        <v>1298</v>
+        <v>906</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,9 +655,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3635DEC8-4BCD-486A-ABC7-45503F172BF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADC8DC13-7DE0-4B0E-BAA0-F9B5D849B1E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E2266D0-D27E-4377-B4B6-88A994955DCE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD754167-E3FF-403E-B904-9885B1515D4C}"/>
 </file>
--- a/dags/files_pami/PAMIResolutividad.xlsx
+++ b/dags/files_pami/PAMIResolutividad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/RESOLUTIVIDAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6DB3D01-B1B1-48AA-976A-FE3A7387A4DC}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{F724E6EA-3B39-4544-9433-C54D990049BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9176A042-984C-4A66-AB4A-F0A16D351498}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{50340556-7F8D-49D4-ADDC-CFA4EE57B04F}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,17 +457,25 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2">
-        <v>906</v>
+        <v>1045</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B3">
+        <v>1107</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,9 +663,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADC8DC13-7DE0-4B0E-BAA0-F9B5D849B1E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BDF282-EEC2-4442-9BF6-AFBCBCCE426B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD754167-E3FF-403E-B904-9885B1515D4C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8739710-44BF-40E1-9636-3EF18AC1E3F8}"/>
 </file>